--- a/mosip_master/xlsx/sync_job_def.xlsx
+++ b/mosip_master/xlsx/sync_job_def.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1044292\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105032CA-0D57-41F9-BF46-CB5C626B5CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -251,11 +252,10 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -287,7 +287,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -565,25 +565,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,334 +609,334 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="5" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="5" t="s">
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="5" t="s">
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
